--- a/ExercicioListaSimplexMinimizacao_BrunoAraujo.xlsx
+++ b/ExercicioListaSimplexMinimizacao_BrunoAraujo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoas\Bruno.Araujo\CDN_OCAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D78A819-46FC-4461-9D17-4B8EDAFF04E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A5F2DD-DB20-4FE5-B855-E289D8A9432D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemplo" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="90">
   <si>
     <t>Aula 5 - Minimizacao (com restricao &gt;=)</t>
   </si>
@@ -307,7 +307,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="164" formatCode="#\ ???/???"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,9 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,7 +388,7 @@
     <xf numFmtId="13" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,20 +409,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,12 +730,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -830,25 +834,25 @@
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>-5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>-6</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>-30</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -885,7 +889,7 @@
       <c r="I5" s="2">
         <v>-8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>-3</v>
       </c>
       <c r="K5" s="2">
@@ -932,7 +936,7 @@
       <c r="I6" s="2">
         <v>-2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>-5</v>
       </c>
       <c r="K6" s="2">
@@ -973,7 +977,7 @@
       <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>2</v>
       </c>
       <c r="K7" s="2">
@@ -1086,17 +1090,17 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>N26*-1</f>
         <v>12.181818181818176</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1105,22 +1109,22 @@
       <c r="H11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>-0.16666666666666666</v>
       </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>5</v>
       </c>
       <c r="O11" s="1"/>
@@ -1132,10 +1136,10 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>N24</f>
         <v>1.6363636363636365</v>
       </c>
@@ -1149,22 +1153,22 @@
       <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>-8</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>-3</v>
       </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>-24</v>
       </c>
       <c r="O12" s="1"/>
@@ -1176,10 +1180,10 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>N23</f>
         <v>3.6363636363636362</v>
       </c>
@@ -1193,22 +1197,22 @@
       <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>-2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>-5</v>
       </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
         <v>-21</v>
       </c>
       <c r="O13" s="1"/>
@@ -1220,10 +1224,10 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
       <c r="C14" s="1"/>
@@ -1236,22 +1240,22 @@
       <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>3</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>2</v>
       </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
         <v>0</v>
       </c>
       <c r="O14" s="1"/>
@@ -1263,10 +1267,10 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>0</v>
       </c>
       <c r="C15" s="1"/>
@@ -1290,10 +1294,10 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <f>N25</f>
         <v>0.45454545454545459</v>
       </c>
@@ -1344,22 +1348,22 @@
       <c r="H17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
         <v>-0.16666666666666666</v>
       </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
         <v>5</v>
       </c>
       <c r="O17" s="1"/>
@@ -1376,37 +1380,37 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="11">
-        <f>3*I17+I12</f>
+      <c r="I18" s="10">
+        <f t="shared" ref="I18:N18" si="0">3*I17+I12</f>
         <v>-5.5</v>
       </c>
-      <c r="J18" s="11">
-        <f>3*J17+J12</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <f>3*K17+K12</f>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="L18" s="11">
-        <f>3*L17+L12</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="11">
-        <f>3*M17+M12</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <f>3*N17+N12</f>
+      <c r="L18" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -1425,7 +1429,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1434,28 +1438,28 @@
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="11">
-        <f>5*I17+I13</f>
+      <c r="I19" s="10">
+        <f t="shared" ref="I19:N19" si="1">5*I17+I13</f>
         <v>2.166666666666667</v>
       </c>
-      <c r="J19" s="8">
-        <f>5*J17+J13</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <f>5*K17+K13</f>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="1"/>
         <v>-0.83333333333333326</v>
       </c>
-      <c r="L19" s="8">
-        <f>5*L17+L13</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <f>5*M17+M13</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="8">
-        <f>5*N17+N13</f>
+      <c r="L19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O19" s="1"/>
@@ -1472,7 +1476,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1481,28 +1485,28 @@
       <c r="H20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="11">
-        <f>-2*I17+I14</f>
+      <c r="I20" s="10">
+        <f t="shared" ref="I20:N20" si="2">-2*I17+I14</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J20" s="8">
-        <f>-2*J17+J14</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <f>-2*K17+K14</f>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L20" s="8">
-        <f>-2*L17+L14</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <f>-2*M17+M14</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <f>-2*N17+N14</f>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="O20" s="1"/>
@@ -1579,37 +1583,37 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f>-(5/6)*I24+I17</f>
         <v>0</v>
       </c>
-      <c r="J23" s="8">
-        <f t="shared" ref="J23:N23" si="0">-(5/6)*J24+J17</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" si="0"/>
+      <c r="J23" s="7">
+        <f t="shared" ref="J23:N23" si="3">-(5/6)*J24+J17</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="3"/>
         <v>-0.24242424242424243</v>
       </c>
-      <c r="L23" s="8">
-        <f t="shared" si="0"/>
+      <c r="L23" s="7">
+        <f t="shared" si="3"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="M23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <f t="shared" si="0"/>
+      <c r="M23" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="3"/>
         <v>3.6363636363636362</v>
       </c>
       <c r="O23" s="1"/>
@@ -1626,37 +1630,37 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <f>I18/I18</f>
         <v>1</v>
       </c>
-      <c r="J24" s="8">
-        <f t="shared" ref="J24:N24" si="1">J18/$I$18</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
+      <c r="J24" s="7">
+        <f t="shared" ref="J24:N24" si="4">J18/$I$18</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
         <f>K18/$I$18</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L24" s="8">
-        <f t="shared" si="1"/>
+      <c r="L24" s="7">
+        <f t="shared" si="4"/>
         <v>-0.18181818181818182</v>
       </c>
-      <c r="M24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="1"/>
+      <c r="M24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="4"/>
         <v>1.6363636363636365</v>
       </c>
       <c r="O24" s="1"/>
@@ -1673,37 +1677,37 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f>-(2.16666666666667)*I24+I19</f>
         <v>0</v>
       </c>
-      <c r="J25" s="8">
-        <f t="shared" ref="J25:N25" si="2">-(2.16666666666667)*J24+J19</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <f t="shared" si="2"/>
+      <c r="J25" s="7">
+        <f t="shared" ref="J25:N25" si="5">-(2.16666666666667)*J24+J19</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="5"/>
         <v>-1.0303030303030303</v>
       </c>
-      <c r="L25" s="8">
-        <f t="shared" si="2"/>
+      <c r="L25" s="7">
+        <f t="shared" si="5"/>
         <v>0.39393939393939392</v>
       </c>
-      <c r="M25" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="8">
-        <f t="shared" si="2"/>
+      <c r="M25" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="5"/>
         <v>0.45454545454545459</v>
       </c>
       <c r="O25" s="1"/>
@@ -1715,37 +1719,37 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f>-(1.33333333333333)*I24+I20</f>
         <v>3.3306690738754696E-15</v>
       </c>
-      <c r="J26" s="8">
-        <f t="shared" ref="J26:N26" si="3">-(1.33333333333333)*J24+J20</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" si="3"/>
+      <c r="J26" s="7">
+        <f t="shared" ref="J26:N26" si="6">-(1.33333333333333)*J24+J20</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="6"/>
         <v>0.2121212121212124</v>
       </c>
-      <c r="L26" s="8">
-        <f t="shared" si="3"/>
+      <c r="L26" s="7">
+        <f t="shared" si="6"/>
         <v>0.24242424242424182</v>
       </c>
-      <c r="M26" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
-        <f t="shared" si="3"/>
+      <c r="M26" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="6"/>
         <v>-12.181818181818176</v>
       </c>
     </row>
@@ -1775,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9EADCD-E9A0-4E3E-A690-7BAB4038B5E6}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,19 +1879,19 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>-5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>-3</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>-14</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -1909,7 +1913,7 @@
       <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>-2</v>
       </c>
       <c r="J5" s="2">
@@ -1942,7 +1946,7 @@
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>3</v>
       </c>
       <c r="J6" s="2">
@@ -1966,21 +1970,21 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="14">
-        <f>M16*(-1)</f>
-        <v>16.5</v>
+      <c r="B8" s="13">
+        <f>M21*(-1)</f>
+        <v>10.448275862068964</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2006,50 +2010,51 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
-        <f>M14</f>
-        <v>5.5</v>
+      <c r="B9" s="13">
+        <f>M19</f>
+        <v>2.2413793103448274</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="8">
         <f>I4/-5</f>
         <v>1</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="15">
         <f t="shared" ref="J9:M9" si="0">J4/-5</f>
         <v>0.6</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="14">
-        <v>0</v>
+      <c r="B10" s="13">
+        <f>M20</f>
+        <v>0.93103448275862077</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2060,23 +2065,23 @@
       <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <f>2*I9+I5</f>
         <v>0</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <f t="shared" ref="J10:M10" si="1">2*J9+J5</f>
         <v>-5.8</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <f t="shared" si="1"/>
         <v>-0.4</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <f t="shared" si="1"/>
         <v>-5.4</v>
       </c>
@@ -2085,12 +2090,11 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18">
-        <f>M15</f>
-        <v>13.5</v>
+      <c r="B11" s="12">
+        <v>0</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2101,32 +2105,32 @@
       <c r="H11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f>-3*I9+I6</f>
         <v>0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="15">
         <f t="shared" ref="J11:M11" si="2">-3*J9+J6</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="20">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <f t="shared" si="2"/>
         <v>-8.3999999999999986</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12" s="1"/>
@@ -2169,54 +2173,49 @@
       <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="9">
-        <f t="shared" ref="I14:J14" si="3">1/5*I15+I9</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="K14" s="9">
-        <f>1/5*K15+K9</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" ref="L14:M14" si="4">1/5*L15+L9</f>
-        <v>-0.5</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="K14" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" ref="I15:M15" si="5">I10/(-2/5)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="5"/>
-        <v>14.499999999999998</v>
-      </c>
-      <c r="K15" s="9">
-        <f>K10/(-2/5)</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="5"/>
-        <v>-2.5</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="5"/>
-        <v>13.5</v>
+        <v>31</v>
+      </c>
+      <c r="I15" s="15">
+        <f>I10/($J$10)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f>J10/($J$10)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" ref="K15:M15" si="3">K10/($J$10)</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.17241379310344829</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.93103448275862077</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2226,48 +2225,134 @@
       <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="9">
-        <f t="shared" ref="I16:J16" si="6">-3/5*I15+I11</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="6"/>
-        <v>-6.4999999999999991</v>
-      </c>
-      <c r="K16" s="9">
-        <f>-3/5*K15+K11</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" ref="L16:M16" si="7">-3/5*L15+L11</f>
-        <v>1.5</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="7"/>
-        <v>-16.5</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="9:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>-8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="8">
+        <f>-3/5*I20+I14</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="8">
+        <f>-3/5*J20+J14</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" ref="K19:M19" si="4">-3/5*K20+K14</f>
+        <v>-0.2413793103448276</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="4"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="4"/>
+        <v>2.2413793103448274</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L20" s="8">
+        <v>-0.17241379310344829</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.93103448275862077</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="8">
+        <f>-11/5*I20+I16</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <f>-11/5*J20+J16</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" ref="K21:M21" si="5">-11/5*K20+K16</f>
+        <v>0.44827586206896564</v>
+      </c>
+      <c r="L21" s="8">
+        <f>-11/5*L20+L16</f>
+        <v>0.37931034482758624</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="5"/>
+        <v>-10.448275862068964</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2295,7 +2380,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,23 +2442,23 @@
         <v>59</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N3" s="1"/>
@@ -2387,25 +2472,25 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>-8</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>-9</v>
       </c>
-      <c r="K4" s="16">
-        <v>1</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
         <v>-70</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -2421,25 +2506,25 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-9</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>-5</v>
       </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
         <v>-47</v>
       </c>
     </row>
@@ -2454,25 +2539,25 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>7</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>6</v>
       </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
@@ -2484,304 +2569,514 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="14">
-        <f>M16*(-1)</f>
+      <c r="B8" s="13">
+        <f>M26*(-1)</f>
         <v>49.634146341463413</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
-        <f>M15</f>
-        <v>1.7804878048780495</v>
+      <c r="B9" s="13">
+        <f>M25</f>
+        <v>1.7804878048780479</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <f>I4/-9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="J9" s="9">
-        <f>J4/-9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <f t="shared" ref="K9:M9" si="0">K4/-9</f>
+      <c r="J9" s="15">
+        <f t="shared" ref="J9:M9" si="0">J4/-9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
         <v>-0.1111111111111111</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="15">
         <f t="shared" si="0"/>
         <v>7.7777777777777777</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="14">
-        <f>M14</f>
-        <v>6.1951219512195115</v>
+      <c r="B10" s="13">
+        <f>M24</f>
+        <v>6.1951219512195133</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="16">
-        <f>5*I9+I5</f>
-        <v>-4.5555555555555554</v>
-      </c>
-      <c r="J10" s="16">
-        <f>5*J9+J5</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" ref="K10:M10" si="1">5*K9+K5</f>
-        <v>-0.55555555555555558</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="16">
-        <f t="shared" si="1"/>
-        <v>-8.1111111111111143</v>
+      <c r="I10" s="8">
+        <v>-9</v>
+      </c>
+      <c r="J10" s="15">
+        <v>-5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>-47</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="16">
-        <f>-6*I9+I6</f>
-        <v>1.666666666666667</v>
-      </c>
-      <c r="J11" s="9">
-        <f>-6*J9+J6</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <f t="shared" ref="K11:M11" si="2">-6*K9+K6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="2"/>
-        <v>-46.666666666666664</v>
+      <c r="I11" s="8">
+        <v>7</v>
+      </c>
+      <c r="J11" s="15">
+        <v>6</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="9">
-        <f>-8/9*I15+I9</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" ref="J14:M14" si="3">-8/9*J15+J9</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="I14" s="15">
+        <f>I4/-9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J14" s="20">
+        <f>J4/-9</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="20">
+        <f>K4/-9</f>
+        <v>-0.1111111111111111</v>
+      </c>
+      <c r="L14" s="20">
+        <f>L4/-9</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <f>M4/-9</f>
+        <v>7.7777777777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="11"/>
+      <c r="G15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="15">
+        <f>5*I14+I5</f>
+        <v>-4.5555555555555554</v>
+      </c>
+      <c r="J15" s="15">
+        <f>5*J14+J5</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f>5*K14+K5</f>
+        <v>-0.55555555555555558</v>
+      </c>
+      <c r="L15" s="15">
+        <f>5*L14+L5</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="15">
+        <f>5*M14+M5</f>
+        <v>-8.1111111111111143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="15">
+        <f>-6*I14+I11</f>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="J16" s="20">
+        <f>-6*J14+J11</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <f>-6*K14+K6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L16" s="20">
+        <f>-6*L14+L6</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <f>-6*M14+M6</f>
+        <v>-46.666666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="15">
+        <f>I4/-9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J19" s="20">
+        <f>J4/-9</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="20">
+        <f>K4/-9</f>
+        <v>-0.1111111111111111</v>
+      </c>
+      <c r="L19" s="20">
+        <f>L4/-9</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <f>M4/-9</f>
+        <v>7.7777777777777777</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="15">
+        <f>I15*(-9/41)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" ref="J20:M20" si="1">J15*(-9/41)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.12195121951219513</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.21951219512195122</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="1"/>
+        <v>1.7804878048780495</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="15">
+        <f>-6*I14+I6</f>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="J21" s="20">
+        <f>-6*J14+J6</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <f>-6*K14+K6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L21" s="20">
+        <f>-6*L14+L6</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <f>-6*M14+M6</f>
+        <v>-46.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="8">
+        <f>-8/9*I25+I19</f>
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" ref="J24:M24" si="2">-8/9*J25+J19</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.21951219512195111</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19512195121951201</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="2"/>
+        <v>6.1951219512195133</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="8">
+        <f>I15/(-4.55555555555556)</f>
+        <v>0.999999999999999</v>
+      </c>
+      <c r="J25" s="8">
+        <f>J15/(-4.55555555555556)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <f>K15/(-4.55555555555556)</f>
+        <v>0.12195121951219501</v>
+      </c>
+      <c r="L25" s="8">
+        <f>L15/(-4.55555555555556)</f>
+        <v>-0.21951219512195103</v>
+      </c>
+      <c r="M25" s="8">
+        <f>M15/(-4.55555555555556)</f>
+        <v>1.7804878048780479</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="8">
+        <f>-5/3*I25+I21</f>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" ref="J26:M26" si="3">-5/3*J25+J21</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
         <f t="shared" si="3"/>
-        <v>-0.21951219512195122</v>
-      </c>
-      <c r="L14" s="9">
+        <v>0.4634146341463416</v>
+      </c>
+      <c r="L26" s="8">
         <f t="shared" si="3"/>
-        <v>0.19512195121951217</v>
-      </c>
-      <c r="M14" s="9">
+        <v>0.36585365853658508</v>
+      </c>
+      <c r="M26" s="8">
         <f t="shared" si="3"/>
-        <v>6.1951219512195115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="12"/>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="9">
-        <f>I10/(-4.55555555555556)</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" ref="J15:M15" si="4">J10/(-4.55555555555556)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="4"/>
-        <v>0.12195121951219513</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="4"/>
-        <v>-0.21951219512195122</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="4"/>
-        <v>1.7804878048780495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="9">
-        <f>-1.66666666666667*I15+I11</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" ref="J16:M16" si="5">-1.66666666666667*J15+J11</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
-        <f t="shared" si="5"/>
-        <v>0.46341463414634143</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" si="5"/>
-        <v>0.36585365853658536</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="5"/>
         <v>-49.634146341463413</v>
       </c>
     </row>
-    <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="7:13" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2807,10 +3102,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6331A3-416B-427D-A411-843F835232FE}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2911,25 +3209,25 @@
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>-10</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>-2</v>
       </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <v>-20</v>
       </c>
     </row>
@@ -2944,25 +3242,25 @@
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>-9</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>-4</v>
       </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
         <v>-32</v>
       </c>
       <c r="O5" s="1"/>
@@ -2978,25 +3276,25 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>-4</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>-10</v>
       </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>1</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
         <v>-40</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -3016,25 +3314,25 @@
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>5</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>4</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="O7" s="1"/>
@@ -3056,10 +3354,10 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f>N19*-1</f>
         <v>20.434782608695652</v>
       </c>
@@ -3091,10 +3389,10 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f>N16</f>
         <v>1.3043478260869565</v>
       </c>
@@ -3104,30 +3402,30 @@
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f>2*I12+I4</f>
         <v>-9.1999999999999993</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <f>2*J12+J4</f>
         <v>0</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f t="shared" ref="K10:N10" si="0">2*K12+K4</f>
         <v>1</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
@@ -3136,10 +3434,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>N18</f>
         <v>3.4782608695652173</v>
       </c>
@@ -3152,37 +3450,37 @@
       <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="11">
-        <f>10*I12+I6</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <f>10*J12+J6</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" ref="K11:N11" si="1">10*K12+K6</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="I11" s="10">
+        <f>4*I12+I5</f>
+        <v>-7.4</v>
+      </c>
+      <c r="J11" s="7">
+        <f>4*J12+J5</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" ref="K11:N11" si="1">4*K12+K5</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
+        <v>-0.4</v>
+      </c>
+      <c r="N11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12" s="1"/>
@@ -3194,37 +3492,37 @@
       <c r="H12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>I6/-10</f>
         <v>0.4</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f>J6/-10</f>
         <v>1</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" ref="K12:N12" si="2">K6/-10</f>
         <v>0</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="23">
         <v>0</v>
       </c>
       <c r="C13" s="1"/>
@@ -3236,37 +3534,37 @@
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f>-4*I12+I7</f>
         <v>3.4</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f>-4*J12+J7</f>
         <v>0</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" ref="K13:N13" si="3">-4*K12+K7</f>
         <v>0</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" si="3"/>
         <v>-16</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
@@ -3311,27 +3609,27 @@
       <c r="H16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="8">
-        <f>I10/(-9.2)</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" ref="J16:N16" si="4">J10/(-9.2)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="I16" s="7">
+        <f>I10/(-46/5)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" ref="J16:N16" si="4">J10/(-46/5)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
         <f t="shared" si="4"/>
         <v>-0.10869565217391305</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="4"/>
         <v>2.1739130434782612E-2</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f t="shared" si="4"/>
         <v>1.3043478260869565</v>
       </c>
@@ -3341,26 +3639,32 @@
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
+      <c r="I17" s="7">
+        <f>(37/5)*I16+I11</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" ref="J17:N17" si="5">(37/5)*J16+J11</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.80434782608695665</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.23913043478260868</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="5"/>
+        <v>-6.3478260869565215</v>
       </c>
       <c r="O17" s="1"/>
     </row>
@@ -3371,28 +3675,28 @@
       <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="8">
-        <f>-2/5*I16+I12</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" ref="J18:N18" si="5">-2/5*J16+J12</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" si="5"/>
+      <c r="I18" s="7">
+        <f>(-2/5)*I16+I12</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" ref="J18:N18" si="6">(-2/5)*J16+J12</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="6"/>
         <v>4.3478260869565223E-2</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <f t="shared" si="5"/>
+      <c r="L18" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" si="6"/>
         <v>-0.10869565217391305</v>
       </c>
-      <c r="N18" s="8">
-        <f t="shared" si="5"/>
+      <c r="N18" s="7">
+        <f t="shared" si="6"/>
         <v>3.4782608695652173</v>
       </c>
       <c r="O18" s="1"/>
@@ -3404,28 +3708,28 @@
       <c r="H19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="8">
-        <f>-3.4*I16+I13</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" ref="J19:N19" si="6">-3.4*J16+J13</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="6"/>
+      <c r="I19" s="7">
+        <f>(-17/5)*I16+I13</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" ref="J19:N19" si="7">(-17/5)*J16+J13</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="7"/>
         <v>0.36956521739130438</v>
       </c>
-      <c r="L19" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="6"/>
+      <c r="L19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="7"/>
         <v>0.32608695652173914</v>
       </c>
-      <c r="N19" s="8">
-        <f t="shared" si="6"/>
+      <c r="N19" s="7">
+        <f t="shared" si="7"/>
         <v>-20.434782608695652</v>
       </c>
       <c r="O19" s="1"/>
@@ -3434,12 +3738,12 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="7:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="7:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="7:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3481,7 +3785,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3573,22 +3877,22 @@
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>-1</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>-1</v>
       </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
         <v>-4</v>
       </c>
     </row>
@@ -3603,22 +3907,22 @@
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>-5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>-2</v>
       </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
         <v>-10</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -3638,22 +3942,22 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>7</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
@@ -3664,20 +3968,20 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>M16*-1</f>
         <v>21.333333333333336</v>
       </c>
@@ -3706,10 +4010,10 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f>M15</f>
         <v>0.66666666666666652</v>
       </c>
@@ -3719,26 +4023,26 @@
       <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>1*I10+I4</f>
         <v>0</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <f t="shared" ref="J9:M9" si="0">1*J10+J4</f>
         <v>-0.6</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -3747,10 +4051,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f>M14</f>
         <v>3.3333333333333335</v>
       </c>
@@ -3760,36 +4064,36 @@
       <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>I5/-5</f>
         <v>1</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <f t="shared" ref="J10:M10" si="1">J5/-5</f>
         <v>0.4</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" si="1"/>
         <v>-0.2</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
       <c r="C11" s="1"/>
@@ -3798,36 +4102,36 @@
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f>-7*I10+I6</f>
         <v>0</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <f t="shared" ref="J11:M11" si="2">-7*J10+J6</f>
         <v>2.1999999999999997</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <f t="shared" si="2"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="2"/>
         <v>-14</v>
       </c>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12" s="1"/>
@@ -3861,26 +4165,26 @@
       <c r="G14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f>I9/(-3/5)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f>J9/(-3/5)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" ref="K14:M14" si="3">K9/(-3/5)</f>
         <v>-1.6666666666666667</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <f t="shared" si="3"/>
         <v>0.33333333333333337</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" si="3"/>
         <v>3.3333333333333335</v>
       </c>
@@ -3890,26 +4194,26 @@
       <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f>-2/5*I14+I10</f>
         <v>1</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f>-2/5*J14+J10</f>
         <v>0</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" ref="K15:M15" si="4">-2/5*K14+K10</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <f t="shared" si="4"/>
         <v>-0.33333333333333337</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="4"/>
         <v>0.66666666666666652</v>
       </c>
@@ -3919,26 +4223,26 @@
       <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f>-2.2*I14+I11</f>
         <v>0</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f>-2.2*J14+J11</f>
         <v>0</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f t="shared" ref="K16:M16" si="5">-2.2*K14+K11</f>
         <v>3.666666666666667</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="5"/>
         <v>-21.333333333333336</v>
       </c>
@@ -3948,11 +4252,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="9:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="9:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3996,10 +4300,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D29A5B-3817-4759-B372-9EB57A6F45B8}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4100,25 +4407,25 @@
       <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>-10</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>-2</v>
       </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <v>-20</v>
       </c>
     </row>
@@ -4133,25 +4440,25 @@
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>-8</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>-4</v>
       </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
         <v>-32</v>
       </c>
       <c r="O5" s="1"/>
@@ -4167,25 +4474,25 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>-4</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>-10</v>
       </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>1</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
         <v>-40</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -4205,25 +4512,25 @@
       <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>4</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>5</v>
       </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="O7" s="1"/>
@@ -4245,10 +4552,10 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f>N19*-1</f>
         <v>25</v>
       </c>
@@ -4280,10 +4587,10 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f>N17</f>
         <v>2.5</v>
       </c>
@@ -4296,37 +4603,37 @@
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f>2*I12+I4</f>
         <v>-9.1999999999999993</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f>2*J12+J4</f>
         <v>0</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" ref="K10:N10" si="0">2*K12+K4</f>
         <v>1</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>N18</f>
         <v>3</v>
       </c>
@@ -4336,30 +4643,30 @@
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f>4*I12+I5</f>
         <v>-6.4</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <f>4*J12+J5</f>
         <v>0</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f t="shared" ref="K11:N11" si="1">4*K12+K5</f>
         <v>0</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <f t="shared" si="1"/>
         <v>-0.4</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
@@ -4368,10 +4675,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>N16</f>
         <v>11</v>
       </c>
@@ -4384,37 +4691,37 @@
       <c r="H12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>I6/-10</f>
         <v>0.4</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f>J6/-10</f>
         <v>1</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" ref="K12:N12" si="2">K6/-10</f>
         <v>0</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="7">
         <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
       <c r="C13" s="1"/>
@@ -4426,37 +4733,37 @@
       <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f>-5*I12+I7</f>
         <v>2</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f>-5*J12+J7</f>
         <v>0</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" ref="K13:N13" si="3">-5*K12+K7</f>
         <v>0</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
       <c r="G14" s="1"/>
@@ -4501,27 +4808,27 @@
       <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="8">
-        <f>(9.2)*I17+I10</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" ref="J16:N16" si="4">(9.2)*J17+J10</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="I16" s="7">
+        <f>(46/5)*I17+I10</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" ref="J16:N16" si="4">(46/5)*J17+J10</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f t="shared" si="4"/>
         <v>-1.4375</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="4"/>
         <v>0.37499999999999994</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -4531,30 +4838,30 @@
       <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="8">
-        <f>I11/(-6.4)</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" ref="J17:N17" si="5">J11/(-6.4)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="I17" s="7">
+        <f>I11/(-32/5)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" ref="J17:N17" si="5">J11/(-32/5)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <f t="shared" si="5"/>
         <v>-0.15625</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
@@ -4567,27 +4874,27 @@
       <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f>-2/5*I17+I12</f>
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f t="shared" ref="J18:N18" si="6">-2/5*J17+J12</f>
         <v>1</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="6"/>
         <v>-0.125</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -4600,27 +4907,27 @@
       <c r="H19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>-2*I17+I13</f>
         <v>0</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f t="shared" ref="J19:N19" si="7">-2*J17+J13</f>
         <v>0</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f t="shared" si="7"/>
         <v>0.3125</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <f t="shared" si="7"/>
         <v>-25</v>
       </c>
@@ -4630,12 +4937,12 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="7:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="7:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="7:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
